--- a/Code/Results/Cases/Case_2_181/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_181/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.12592997253149</v>
+        <v>14.8632254154274</v>
       </c>
       <c r="C2">
-        <v>10.80141046155307</v>
+        <v>11.71562406796107</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.25525540957478</v>
+        <v>16.88187714018735</v>
       </c>
       <c r="F2">
-        <v>24.52611561311987</v>
+        <v>34.2423460306265</v>
       </c>
       <c r="G2">
-        <v>19.6216438807043</v>
+        <v>24.7555402894241</v>
       </c>
       <c r="H2">
-        <v>7.843838207267435</v>
+        <v>13.26614312731674</v>
       </c>
       <c r="I2">
-        <v>12.27705372160727</v>
+        <v>20.93096524664174</v>
       </c>
       <c r="J2">
-        <v>4.793756212645944</v>
+        <v>7.031460858160722</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.232778234757131</v>
+        <v>13.12542293019256</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.02722359221151</v>
+        <v>16.99889466005951</v>
       </c>
       <c r="O2">
-        <v>12.62178866758622</v>
+        <v>19.65991991917291</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.7913704174385</v>
+        <v>14.35589679774867</v>
       </c>
       <c r="C3">
-        <v>10.52503797817302</v>
+        <v>11.63343596916445</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.17754298303371</v>
+        <v>16.91007058029157</v>
       </c>
       <c r="F3">
-        <v>23.8957346475129</v>
+        <v>34.24985981617488</v>
       </c>
       <c r="G3">
-        <v>19.01998731071357</v>
+        <v>24.76097453403908</v>
       </c>
       <c r="H3">
-        <v>7.864101826319966</v>
+        <v>13.30705496182806</v>
       </c>
       <c r="I3">
-        <v>12.42582665468491</v>
+        <v>21.02734140717243</v>
       </c>
       <c r="J3">
-        <v>4.750195464802568</v>
+        <v>7.021348884147555</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.930298661754609</v>
+        <v>13.09343676531269</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.08339848938922</v>
+        <v>17.02924377958301</v>
       </c>
       <c r="O3">
-        <v>12.52144532793338</v>
+        <v>19.71659045715352</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.92196520176062</v>
+        <v>14.03612098167844</v>
       </c>
       <c r="C4">
-        <v>10.35159978374251</v>
+        <v>11.5826016541428</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.13477154009733</v>
+        <v>16.92981617082593</v>
       </c>
       <c r="F4">
-        <v>23.52025700652301</v>
+        <v>34.26283741874862</v>
       </c>
       <c r="G4">
-        <v>18.66557149177359</v>
+        <v>24.77326584739384</v>
       </c>
       <c r="H4">
-        <v>7.882012116669489</v>
+        <v>13.33437981971176</v>
       </c>
       <c r="I4">
-        <v>12.52784373359861</v>
+        <v>21.0906699921699</v>
       </c>
       <c r="J4">
-        <v>4.723239775401481</v>
+        <v>7.015104556828565</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.742611848948684</v>
+        <v>13.07554667894149</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.12143436960316</v>
+        <v>17.04955219004174</v>
       </c>
       <c r="O4">
-        <v>12.47147534464842</v>
+        <v>19.75592606303271</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.55505293036617</v>
+        <v>13.90391811629674</v>
       </c>
       <c r="C5">
-        <v>10.28005318406169</v>
+        <v>11.56180373249875</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.11857625674447</v>
+        <v>16.93847517380434</v>
       </c>
       <c r="F5">
-        <v>23.37033406039903</v>
+        <v>34.27022965163775</v>
       </c>
       <c r="G5">
-        <v>18.52508566364383</v>
+        <v>24.78052206658044</v>
       </c>
       <c r="H5">
-        <v>7.890638420637101</v>
+        <v>13.34606910890986</v>
       </c>
       <c r="I5">
-        <v>12.57198140444275</v>
+        <v>21.11752064457685</v>
       </c>
       <c r="J5">
-        <v>4.712206346662102</v>
+        <v>7.012551348493265</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.665746080819343</v>
+        <v>13.06870127360822</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.13780740947774</v>
+        <v>17.05824964274589</v>
       </c>
       <c r="O5">
-        <v>12.45396329855896</v>
+        <v>19.77309453897431</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.49336348607658</v>
+        <v>13.88185754715803</v>
       </c>
       <c r="C6">
-        <v>10.2681226462104</v>
+        <v>11.55834557929803</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.1159612935619</v>
+        <v>16.93994999616776</v>
       </c>
       <c r="F6">
-        <v>23.34563093571934</v>
+        <v>34.2715841799597</v>
       </c>
       <c r="G6">
-        <v>18.5020008225182</v>
+        <v>24.78186252962882</v>
       </c>
       <c r="H6">
-        <v>7.892149627564694</v>
+        <v>13.34804357105051</v>
       </c>
       <c r="I6">
-        <v>12.57946201911437</v>
+        <v>21.12204219672368</v>
       </c>
       <c r="J6">
-        <v>4.710371420896085</v>
+        <v>7.012126880984401</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.652962942712426</v>
+        <v>13.06759161306716</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.14057836256163</v>
+        <v>17.05971933260892</v>
       </c>
       <c r="O6">
-        <v>12.45122526569287</v>
+        <v>19.77601405747949</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.91706807451133</v>
+        <v>14.03434544419671</v>
       </c>
       <c r="C7">
-        <v>10.35063830100868</v>
+        <v>11.58232148621528</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.13454814010969</v>
+        <v>16.92993046878184</v>
       </c>
       <c r="F7">
-        <v>23.5182223655941</v>
+        <v>34.26292859515328</v>
       </c>
       <c r="G7">
-        <v>18.66366067839295</v>
+        <v>24.77335461480095</v>
       </c>
       <c r="H7">
-        <v>7.882123140344049</v>
+        <v>13.33453522198823</v>
       </c>
       <c r="I7">
-        <v>12.52842875568601</v>
+        <v>21.091027884198</v>
       </c>
       <c r="J7">
-        <v>4.723091167112393</v>
+        <v>7.015070157720653</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.741576602685308</v>
+        <v>13.07545255145019</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.12165167017732</v>
+        <v>17.04966777893348</v>
       </c>
       <c r="O7">
-        <v>12.47122773306951</v>
+        <v>19.75615299537125</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.67611379522044</v>
+        <v>14.69012372187811</v>
       </c>
       <c r="C8">
-        <v>10.70693625593183</v>
+        <v>11.68736888912771</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.2274293454233</v>
+        <v>16.89109310663236</v>
       </c>
       <c r="F8">
-        <v>24.30646396214263</v>
+        <v>34.24320148084546</v>
       </c>
       <c r="G8">
-        <v>19.41118325177608</v>
+        <v>24.75555347580696</v>
       </c>
       <c r="H8">
-        <v>7.849661533564809</v>
+        <v>13.27979177973602</v>
       </c>
       <c r="I8">
-        <v>12.32606290746155</v>
+        <v>20.96333336395905</v>
       </c>
       <c r="J8">
-        <v>4.778782189522804</v>
+        <v>7.027981828946603</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.12895514823474</v>
+        <v>13.11403408430327</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.04584588002022</v>
+        <v>17.00901202475047</v>
       </c>
       <c r="O8">
-        <v>12.58473070931191</v>
+        <v>19.67851617592697</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.73157463920437</v>
+        <v>15.90303355660076</v>
       </c>
       <c r="C9">
-        <v>11.37300954581008</v>
+        <v>11.88996198846041</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.44909055506952</v>
+        <v>16.83423722324098</v>
       </c>
       <c r="F9">
-        <v>25.93623370428028</v>
+        <v>34.27081012778373</v>
       </c>
       <c r="G9">
-        <v>20.98832896211208</v>
+        <v>24.79179814990458</v>
       </c>
       <c r="H9">
-        <v>7.831530011458948</v>
+        <v>13.18994452025986</v>
       </c>
       <c r="I9">
-        <v>12.01953181482054</v>
+        <v>20.7459068516285</v>
       </c>
       <c r="J9">
-        <v>4.886166265152722</v>
+        <v>7.053005273709004</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.868568085679712</v>
+        <v>13.20334110665529</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.92617661344945</v>
+        <v>16.94253811110016</v>
       </c>
       <c r="O9">
-        <v>12.90267707389272</v>
+        <v>19.56240240786058</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.73984680116319</v>
+        <v>16.74086890661423</v>
       </c>
       <c r="C10">
-        <v>11.83896501178456</v>
+        <v>12.03611375743128</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.63630133489533</v>
+        <v>16.80421194250793</v>
       </c>
       <c r="F10">
-        <v>27.17456270335913</v>
+        <v>34.33133957647747</v>
       </c>
       <c r="G10">
-        <v>22.2044917184949</v>
+        <v>24.86180794879157</v>
       </c>
       <c r="H10">
-        <v>7.848904361376855</v>
+        <v>13.1346183527667</v>
       </c>
       <c r="I10">
-        <v>11.85765779112951</v>
+        <v>20.60630892491751</v>
       </c>
       <c r="J10">
-        <v>4.96373208357081</v>
+        <v>7.07119103262261</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.39444989985394</v>
+        <v>13.27694483931374</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.85719221434538</v>
+        <v>16.90173845888887</v>
       </c>
       <c r="O10">
-        <v>13.19792515594662</v>
+        <v>19.49926332470065</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.60289879134564</v>
+        <v>17.10892248817138</v>
       </c>
       <c r="C11">
-        <v>12.04522265368559</v>
+        <v>12.10188680349506</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.72677473356896</v>
+        <v>16.79309735018839</v>
       </c>
       <c r="F11">
-        <v>27.74476940001903</v>
+        <v>34.36755252995965</v>
       </c>
       <c r="G11">
-        <v>22.76817102627695</v>
+        <v>24.90303318858504</v>
       </c>
       <c r="H11">
-        <v>7.864105653619818</v>
+        <v>13.11177180570197</v>
       </c>
       <c r="I11">
-        <v>11.79970772237271</v>
+        <v>20.54718570010252</v>
       </c>
       <c r="J11">
-        <v>4.998685536104134</v>
+        <v>7.079417036458264</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.62895828606757</v>
+        <v>13.31208717734023</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.83021934753128</v>
+        <v>16.88491477522829</v>
       </c>
       <c r="O11">
-        <v>13.34621257709893</v>
+        <v>19.47538023510961</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.92251535808003</v>
+        <v>17.24630586149665</v>
       </c>
       <c r="C12">
-        <v>12.12246041454178</v>
+        <v>12.1266799918149</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.76179695653254</v>
+        <v>16.7892537228853</v>
       </c>
       <c r="F12">
-        <v>27.96152809396132</v>
+        <v>34.38250579154769</v>
       </c>
       <c r="G12">
-        <v>22.98296978727447</v>
+        <v>24.91998535670103</v>
       </c>
       <c r="H12">
-        <v>7.870963010721027</v>
+        <v>13.10345448531418</v>
       </c>
       <c r="I12">
-        <v>11.7801895101443</v>
+        <v>20.52542813703625</v>
       </c>
       <c r="J12">
-        <v>5.011870083719258</v>
+        <v>7.082524904699997</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.71701749946662</v>
+        <v>13.32562631971414</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.82066583854274</v>
+        <v>16.87879308653035</v>
       </c>
       <c r="O12">
-        <v>13.4044118762218</v>
+        <v>19.46703402023193</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.85399953504795</v>
+        <v>17.2168080235244</v>
       </c>
       <c r="C13">
-        <v>12.10586515253932</v>
+        <v>12.12134556664179</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.75422044760211</v>
+        <v>16.7900652837503</v>
       </c>
       <c r="F13">
-        <v>27.9148104683485</v>
+        <v>34.37923031672505</v>
       </c>
       <c r="G13">
-        <v>22.93665146262393</v>
+        <v>24.91627490084341</v>
       </c>
       <c r="H13">
-        <v>7.869436373189859</v>
+        <v>13.10523090169459</v>
       </c>
       <c r="I13">
-        <v>11.78428241118913</v>
+        <v>20.53008592884207</v>
       </c>
       <c r="J13">
-        <v>5.00903290942604</v>
+        <v>7.081855893897811</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.69808640968656</v>
+        <v>13.32270024383878</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.8226935412703</v>
+        <v>16.88010043358613</v>
       </c>
       <c r="O13">
-        <v>13.39178611154066</v>
+        <v>19.46880046433687</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.62933782469597</v>
+        <v>17.12026557327811</v>
       </c>
       <c r="C14">
-        <v>12.05159468632687</v>
+        <v>12.10392889536424</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.72964077707341</v>
+        <v>16.79277381672167</v>
       </c>
       <c r="F14">
-        <v>27.76258639713618</v>
+        <v>34.36875793683145</v>
       </c>
       <c r="G14">
-        <v>22.78581650652372</v>
+        <v>24.90440102688053</v>
       </c>
       <c r="H14">
-        <v>7.864647453458873</v>
+        <v>13.11108083564687</v>
       </c>
       <c r="I14">
-        <v>11.7980523209977</v>
+        <v>20.5453830367236</v>
       </c>
       <c r="J14">
-        <v>4.999771292040471</v>
+        <v>7.079672868149302</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.63621822492255</v>
+        <v>13.31319645303008</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.82941997903764</v>
+        <v>16.88440615181232</v>
       </c>
       <c r="O14">
-        <v>13.35095947891262</v>
+        <v>19.47467959201469</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.49078993987918</v>
+        <v>17.06086829128389</v>
       </c>
       <c r="C15">
-        <v>12.01823818352493</v>
+        <v>12.09324555119307</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.7146841713877</v>
+        <v>16.7944804153712</v>
       </c>
       <c r="F15">
-        <v>27.66944897080534</v>
+        <v>34.3625045629529</v>
       </c>
       <c r="G15">
-        <v>22.693596677796</v>
+        <v>24.89730232548283</v>
       </c>
       <c r="H15">
-        <v>7.861859004116359</v>
+        <v>13.11470761747671</v>
       </c>
       <c r="I15">
-        <v>11.80680793272728</v>
+        <v>20.55483518356859</v>
       </c>
       <c r="J15">
-        <v>4.994091455367933</v>
+        <v>7.078334759534859</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.59822349194072</v>
+        <v>13.30740503815789</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.83362695124932</v>
+        <v>16.88707594769339</v>
       </c>
       <c r="O15">
-        <v>13.32621940421498</v>
+        <v>19.47837165370209</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.68243300904068</v>
+        <v>16.71654284072833</v>
       </c>
       <c r="C16">
-        <v>11.82536661557929</v>
+        <v>12.03180004129929</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.63049542490208</v>
+        <v>16.80498945045962</v>
       </c>
       <c r="F16">
-        <v>27.13742319173267</v>
+        <v>34.32914697014788</v>
       </c>
       <c r="G16">
-        <v>22.16785031882691</v>
+        <v>24.8593018979018</v>
       </c>
       <c r="H16">
-        <v>7.848062183017729</v>
+        <v>13.13615817332106</v>
       </c>
       <c r="I16">
-        <v>11.86177503558213</v>
+        <v>20.61026101651017</v>
       </c>
       <c r="J16">
-        <v>4.961440785935413</v>
+        <v>7.070652467279798</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.37902347086369</v>
+        <v>13.27468099593243</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.85904590491197</v>
+        <v>16.90287281330654</v>
       </c>
       <c r="O16">
-        <v>13.18851873103253</v>
+        <v>19.50092168747782</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.17363647100821</v>
+        <v>16.50187759990274</v>
       </c>
       <c r="C17">
-        <v>11.70554928505164</v>
+        <v>11.99391478794676</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.58020764175155</v>
+        <v>16.81208759419215</v>
       </c>
       <c r="F17">
-        <v>26.81269005939009</v>
+        <v>34.31090073401174</v>
       </c>
       <c r="G17">
-        <v>21.84787965006323</v>
+        <v>24.83838708410535</v>
       </c>
       <c r="H17">
-        <v>7.841504156386815</v>
+        <v>13.14991225124001</v>
       </c>
       <c r="I17">
-        <v>11.899632405314</v>
+        <v>20.64538577905035</v>
       </c>
       <c r="J17">
-        <v>4.941322925607817</v>
+        <v>7.06592735442437</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.24329337652945</v>
+        <v>13.2550259280856</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.8757871930137</v>
+        <v>16.91300795505777</v>
       </c>
       <c r="O17">
-        <v>13.10765170365993</v>
+        <v>19.51599627925019</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.87623105454236</v>
+        <v>16.37718213886475</v>
       </c>
       <c r="C18">
-        <v>11.63609873015789</v>
+        <v>11.97205782864069</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.55178346081416</v>
+        <v>16.81640975911917</v>
       </c>
       <c r="F18">
-        <v>26.62656863948586</v>
+        <v>34.30122331979911</v>
       </c>
       <c r="G18">
-        <v>21.66483201318291</v>
+        <v>24.82724066732085</v>
       </c>
       <c r="H18">
-        <v>7.838415968665213</v>
+        <v>13.15804173487325</v>
       </c>
       <c r="I18">
-        <v>11.92287285339931</v>
+        <v>20.66600085941816</v>
       </c>
       <c r="J18">
-        <v>4.929720675781794</v>
+        <v>7.063205215561648</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.16478427001495</v>
+        <v>13.24387751133865</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.88582960703347</v>
+        <v>16.91900088348367</v>
       </c>
       <c r="O18">
-        <v>13.06245307005653</v>
+        <v>19.52512217341728</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.77471543345474</v>
+        <v>16.33475543898701</v>
       </c>
       <c r="C19">
-        <v>11.61249362576203</v>
+        <v>11.96464638401679</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.5422454318235</v>
+        <v>16.81791432135184</v>
       </c>
       <c r="F19">
-        <v>26.56366888303835</v>
+        <v>34.29808730387565</v>
       </c>
       <c r="G19">
-        <v>21.60303047784115</v>
+        <v>24.82361856740466</v>
       </c>
       <c r="H19">
-        <v>7.837486231249102</v>
+        <v>13.16083175600218</v>
       </c>
       <c r="I19">
-        <v>11.9309883635138</v>
+        <v>20.67305153922712</v>
       </c>
       <c r="J19">
-        <v>4.925787151010135</v>
+        <v>7.062282806500657</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.13812888739803</v>
+        <v>13.24012996854074</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.88929998832557</v>
+        <v>16.9210580793028</v>
       </c>
       <c r="O19">
-        <v>13.0473740474446</v>
+        <v>19.52829019524343</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.22829083306899</v>
+        <v>16.52485677062522</v>
       </c>
       <c r="C20">
-        <v>11.71835974925786</v>
+        <v>11.9979546879903</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.58550912016439</v>
+        <v>16.81130720139736</v>
       </c>
       <c r="F20">
-        <v>26.84719169172026</v>
+        <v>34.31275853681814</v>
       </c>
       <c r="G20">
-        <v>21.8818396925814</v>
+        <v>24.84052213727744</v>
       </c>
       <c r="H20">
-        <v>7.842131122665512</v>
+        <v>13.1484254896195</v>
       </c>
       <c r="I20">
-        <v>11.89544949795187</v>
+        <v>20.64160401364686</v>
       </c>
       <c r="J20">
-        <v>4.943467741846573</v>
+        <v>7.0664308069246</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.2577881968245</v>
+        <v>13.25710208097624</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.87396209463803</v>
+        <v>16.91191213846146</v>
       </c>
       <c r="O20">
-        <v>13.11612386574207</v>
+        <v>19.51434441762294</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.69552138385413</v>
+        <v>17.1486772591326</v>
       </c>
       <c r="C21">
-        <v>12.06755912864945</v>
+        <v>12.10904776687224</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.73683976354434</v>
+        <v>16.79196834800742</v>
       </c>
       <c r="F21">
-        <v>27.80727683559342</v>
+        <v>34.37180033748269</v>
       </c>
       <c r="G21">
-        <v>22.83008501754301</v>
+        <v>24.90785234519025</v>
       </c>
       <c r="H21">
-        <v>7.866023786232791</v>
+        <v>13.10935349640768</v>
       </c>
       <c r="I21">
-        <v>11.79394052462999</v>
+        <v>20.54087276719443</v>
       </c>
       <c r="J21">
-        <v>5.002493083400449</v>
+        <v>7.080314272850882</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.6544110802451</v>
+        <v>13.31598172222917</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.82742611539306</v>
+        <v>16.88313470294758</v>
       </c>
       <c r="O21">
-        <v>13.36289546592496</v>
+        <v>19.47293379766402</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.61248976438771</v>
+        <v>17.54473611206609</v>
       </c>
       <c r="C22">
-        <v>12.29070649949422</v>
+        <v>12.18098603769272</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.84018252872011</v>
+        <v>16.7814577736709</v>
       </c>
       <c r="F22">
-        <v>28.43954697579149</v>
+        <v>34.41761193435774</v>
       </c>
       <c r="G22">
-        <v>23.45760318047034</v>
+        <v>24.95966830894307</v>
       </c>
       <c r="H22">
-        <v>7.888079912311946</v>
+        <v>13.08576563490836</v>
       </c>
       <c r="I22">
-        <v>11.74182432249764</v>
+        <v>20.47871830363671</v>
       </c>
       <c r="J22">
-        <v>5.040767275785418</v>
+        <v>7.089346101984835</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.90926632100942</v>
+        <v>13.35580883338824</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.8008756307192</v>
+        <v>16.86577850802484</v>
       </c>
       <c r="O22">
-        <v>13.53611330651028</v>
+        <v>19.44993755649949</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.12690405415558</v>
+        <v>17.33445020648726</v>
       </c>
       <c r="C23">
-        <v>12.17208695617865</v>
+        <v>12.14265598029994</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.78462119361467</v>
+        <v>16.78687293065187</v>
       </c>
       <c r="F23">
-        <v>28.10170087164987</v>
+        <v>34.39250326213829</v>
       </c>
       <c r="G23">
-        <v>23.12201907570747</v>
+        <v>24.93130138339523</v>
       </c>
       <c r="H23">
-        <v>7.875701854034616</v>
+        <v>13.09817657978115</v>
       </c>
       <c r="I23">
-        <v>11.76827996674679</v>
+        <v>20.51155425462737</v>
       </c>
       <c r="J23">
-        <v>5.020368528063285</v>
+        <v>7.08452960915401</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.77366360063796</v>
+        <v>13.33443164066229</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.81468344694757</v>
+        <v>16.87490921958342</v>
       </c>
       <c r="O23">
-        <v>13.44256106659429</v>
+        <v>19.46183828828052</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.20359683664488</v>
+        <v>16.51447187084181</v>
       </c>
       <c r="C24">
-        <v>11.7125698976715</v>
+        <v>11.99612848575285</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.58311080496074</v>
+        <v>16.8116592651686</v>
       </c>
       <c r="F24">
-        <v>26.83159171009248</v>
+        <v>34.31191609246273</v>
       </c>
       <c r="G24">
-        <v>21.86648351781894</v>
+        <v>24.83955414496342</v>
       </c>
       <c r="H24">
-        <v>7.841845550503923</v>
+        <v>13.14909696280016</v>
       </c>
       <c r="I24">
-        <v>11.89733600658803</v>
+        <v>20.64331243727932</v>
       </c>
       <c r="J24">
-        <v>4.942498182958848</v>
+        <v>7.066203213487185</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.25123656633226</v>
+        <v>13.25616297967623</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.87478592280226</v>
+        <v>16.91240703970587</v>
       </c>
       <c r="O24">
-        <v>13.11228957698495</v>
+        <v>19.51508979368768</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.94680435877673</v>
+        <v>15.5836983085088</v>
       </c>
       <c r="C25">
-        <v>11.1966961947283</v>
+        <v>11.83558357157838</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.38485917511737</v>
+        <v>16.84755353376477</v>
       </c>
       <c r="F25">
-        <v>25.48742398524841</v>
+        <v>34.25625643092198</v>
       </c>
       <c r="G25">
-        <v>20.55084617081335</v>
+        <v>24.77436674883826</v>
       </c>
       <c r="H25">
-        <v>7.831258111010866</v>
+        <v>13.21237517643256</v>
       </c>
       <c r="I25">
-        <v>12.09196349414678</v>
+        <v>20.80119169987469</v>
       </c>
       <c r="J25">
-        <v>4.857333976337346</v>
+        <v>7.046269356000654</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.671211947120604</v>
+        <v>13.17775287118515</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.95532111249229</v>
+        <v>16.95910650002345</v>
       </c>
       <c r="O25">
-        <v>12.80605983412995</v>
+        <v>19.58993056838318</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_181/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_181/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.8632254154274</v>
+        <v>20.12592997253152</v>
       </c>
       <c r="C2">
-        <v>11.71562406796107</v>
+        <v>10.80141046155328</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.88187714018735</v>
+        <v>10.25525540957483</v>
       </c>
       <c r="F2">
-        <v>34.2423460306265</v>
+        <v>24.52611561311987</v>
       </c>
       <c r="G2">
-        <v>24.7555402894241</v>
+        <v>19.62164388070427</v>
       </c>
       <c r="H2">
-        <v>13.26614312731674</v>
+        <v>7.843838207267435</v>
       </c>
       <c r="I2">
-        <v>20.93096524664174</v>
+        <v>12.27705372160731</v>
       </c>
       <c r="J2">
-        <v>7.031460858160722</v>
+        <v>4.793756212645944</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.12542293019256</v>
+        <v>9.23277823475709</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.99889466005951</v>
+        <v>12.02722359221154</v>
       </c>
       <c r="O2">
-        <v>19.65991991917291</v>
+        <v>12.6217886675862</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.35589679774867</v>
+        <v>18.79137041743849</v>
       </c>
       <c r="C3">
-        <v>11.63343596916445</v>
+        <v>10.52503797817313</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>16.91007058029157</v>
+        <v>10.17754298303371</v>
       </c>
       <c r="F3">
-        <v>34.24985981617488</v>
+        <v>23.89573464751289</v>
       </c>
       <c r="G3">
-        <v>24.76097453403908</v>
+        <v>19.01998731071362</v>
       </c>
       <c r="H3">
-        <v>13.30705496182806</v>
+        <v>7.86410182631997</v>
       </c>
       <c r="I3">
-        <v>21.02734140717243</v>
+        <v>12.42582665468498</v>
       </c>
       <c r="J3">
-        <v>7.021348884147555</v>
+        <v>4.750195464802632</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>13.09343676531269</v>
+        <v>8.930298661754595</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.02924377958301</v>
+        <v>12.08339848938921</v>
       </c>
       <c r="O3">
-        <v>19.71659045715352</v>
+        <v>12.52144532793339</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.03612098167844</v>
+        <v>17.9219652017606</v>
       </c>
       <c r="C4">
-        <v>11.5826016541428</v>
+        <v>10.35159978374237</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>16.92981617082593</v>
+        <v>10.13477154009728</v>
       </c>
       <c r="F4">
-        <v>34.26283741874862</v>
+        <v>23.52025700652301</v>
       </c>
       <c r="G4">
-        <v>24.77326584739384</v>
+        <v>18.66557149177367</v>
       </c>
       <c r="H4">
-        <v>13.33437981971176</v>
+        <v>7.882012116669489</v>
       </c>
       <c r="I4">
-        <v>21.0906699921699</v>
+        <v>12.52784373359862</v>
       </c>
       <c r="J4">
-        <v>7.015104556828565</v>
+        <v>4.72323977540148</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.07554667894149</v>
+        <v>8.742611848948661</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.04955219004174</v>
+        <v>12.12143436960309</v>
       </c>
       <c r="O4">
-        <v>19.75592606303271</v>
+        <v>12.4714753446485</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.90391811629674</v>
+        <v>17.55505293036617</v>
       </c>
       <c r="C5">
-        <v>11.56180373249875</v>
+        <v>10.28005318406166</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16.93847517380434</v>
+        <v>10.11857625674458</v>
       </c>
       <c r="F5">
-        <v>34.27022965163775</v>
+        <v>23.37033406039904</v>
       </c>
       <c r="G5">
-        <v>24.78052206658044</v>
+        <v>18.52508566364384</v>
       </c>
       <c r="H5">
-        <v>13.34606910890986</v>
+        <v>7.890638420637101</v>
       </c>
       <c r="I5">
-        <v>21.11752064457685</v>
+        <v>12.57198140444276</v>
       </c>
       <c r="J5">
-        <v>7.012551348493265</v>
+        <v>4.7122063466622</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.06870127360822</v>
+        <v>8.665746080819375</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.05824964274589</v>
+        <v>12.13780740947771</v>
       </c>
       <c r="O5">
-        <v>19.77309453897431</v>
+        <v>12.45396329855897</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.88185754715803</v>
+        <v>17.49336348607658</v>
       </c>
       <c r="C6">
-        <v>11.55834557929803</v>
+        <v>10.26812264621018</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16.93994999616776</v>
+        <v>10.11596129356184</v>
       </c>
       <c r="F6">
-        <v>34.2715841799597</v>
+        <v>23.34563093571946</v>
       </c>
       <c r="G6">
-        <v>24.78186252962882</v>
+        <v>18.50200082251829</v>
       </c>
       <c r="H6">
-        <v>13.34804357105051</v>
+        <v>7.892149627564751</v>
       </c>
       <c r="I6">
-        <v>21.12204219672368</v>
+        <v>12.57946201911437</v>
       </c>
       <c r="J6">
-        <v>7.012126880984401</v>
+        <v>4.710371420895987</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.06759161306716</v>
+        <v>8.652962942712456</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.05971933260892</v>
+        <v>12.14057836256163</v>
       </c>
       <c r="O6">
-        <v>19.77601405747949</v>
+        <v>12.45122526569294</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.03434544419671</v>
+        <v>17.91706807451132</v>
       </c>
       <c r="C7">
-        <v>11.58232148621528</v>
+        <v>10.35063830100879</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16.92993046878184</v>
+        <v>10.13454814010973</v>
       </c>
       <c r="F7">
-        <v>34.26292859515328</v>
+        <v>23.51822236559417</v>
       </c>
       <c r="G7">
-        <v>24.77335461480095</v>
+        <v>18.66366067839296</v>
       </c>
       <c r="H7">
-        <v>13.33453522198823</v>
+        <v>7.882123140344049</v>
       </c>
       <c r="I7">
-        <v>21.091027884198</v>
+        <v>12.52842875568604</v>
       </c>
       <c r="J7">
-        <v>7.015070157720653</v>
+        <v>4.72309116711236</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>13.07545255145019</v>
+        <v>8.741576602685274</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.04966777893348</v>
+        <v>12.12165167017734</v>
       </c>
       <c r="O7">
-        <v>19.75615299537125</v>
+        <v>12.47122773306951</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.69012372187811</v>
+        <v>19.67611379522049</v>
       </c>
       <c r="C8">
-        <v>11.68736888912771</v>
+        <v>10.7069362559318</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.89109310663236</v>
+        <v>10.22742934542329</v>
       </c>
       <c r="F8">
-        <v>34.24320148084546</v>
+        <v>24.30646396214264</v>
       </c>
       <c r="G8">
-        <v>24.75555347580696</v>
+        <v>19.41118325177612</v>
       </c>
       <c r="H8">
-        <v>13.27979177973602</v>
+        <v>7.84966153356486</v>
       </c>
       <c r="I8">
-        <v>20.96333336395905</v>
+        <v>12.32606290746165</v>
       </c>
       <c r="J8">
-        <v>7.027981828946603</v>
+        <v>4.778782189522836</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.11403408430327</v>
+        <v>9.128955148234713</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.00901202475047</v>
+        <v>12.04584588002031</v>
       </c>
       <c r="O8">
-        <v>19.67851617592697</v>
+        <v>12.58473070931194</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.90303355660076</v>
+        <v>22.73157463920438</v>
       </c>
       <c r="C9">
-        <v>11.88996198846041</v>
+        <v>11.37300954581028</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.83423722324098</v>
+        <v>10.44909055506958</v>
       </c>
       <c r="F9">
-        <v>34.27081012778373</v>
+        <v>25.93623370428038</v>
       </c>
       <c r="G9">
-        <v>24.79179814990458</v>
+        <v>20.98832896211206</v>
       </c>
       <c r="H9">
-        <v>13.18994452025986</v>
+        <v>7.831530011459</v>
       </c>
       <c r="I9">
-        <v>20.7459068516285</v>
+        <v>12.01953181482058</v>
       </c>
       <c r="J9">
-        <v>7.053005273709004</v>
+        <v>4.886166265152564</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.20334110665529</v>
+        <v>9.868568085679728</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.94253811110016</v>
+        <v>11.92617661344945</v>
       </c>
       <c r="O9">
-        <v>19.56240240786058</v>
+        <v>12.90267707389269</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.74086890661423</v>
+        <v>24.73984680116325</v>
       </c>
       <c r="C10">
-        <v>12.03611375743128</v>
+        <v>11.83896501178448</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.80421194250793</v>
+        <v>10.63630133489529</v>
       </c>
       <c r="F10">
-        <v>34.33133957647747</v>
+        <v>27.17456270335905</v>
       </c>
       <c r="G10">
-        <v>24.86180794879157</v>
+        <v>22.20449171849483</v>
       </c>
       <c r="H10">
-        <v>13.1346183527667</v>
+        <v>7.848904361376807</v>
       </c>
       <c r="I10">
-        <v>20.60630892491751</v>
+        <v>11.85765779112932</v>
       </c>
       <c r="J10">
-        <v>7.07119103262261</v>
+        <v>4.96373208357075</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>13.27694483931374</v>
+        <v>10.39444989985395</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.90173845888887</v>
+        <v>11.85719221434529</v>
       </c>
       <c r="O10">
-        <v>19.49926332470065</v>
+        <v>13.19792515594652</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.10892248817138</v>
+        <v>25.6028987913456</v>
       </c>
       <c r="C11">
-        <v>12.10188680349506</v>
+        <v>12.04522265368571</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.79309735018839</v>
+        <v>10.72677473356893</v>
       </c>
       <c r="F11">
-        <v>34.36755252995965</v>
+        <v>27.74476940001909</v>
       </c>
       <c r="G11">
-        <v>24.90303318858504</v>
+        <v>22.76817102627701</v>
       </c>
       <c r="H11">
-        <v>13.11177180570197</v>
+        <v>7.864105653619906</v>
       </c>
       <c r="I11">
-        <v>20.54718570010252</v>
+        <v>11.79970772237286</v>
       </c>
       <c r="J11">
-        <v>7.079417036458264</v>
+        <v>4.998685536104128</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.31208717734023</v>
+        <v>10.62895828606754</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.88491477522829</v>
+        <v>11.83021934753133</v>
       </c>
       <c r="O11">
-        <v>19.47538023510961</v>
+        <v>13.34621257709902</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.24630586149665</v>
+        <v>25.92251535807998</v>
       </c>
       <c r="C12">
-        <v>12.1266799918149</v>
+        <v>12.12246041454179</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.7892537228853</v>
+        <v>10.76179695653266</v>
       </c>
       <c r="F12">
-        <v>34.38250579154769</v>
+        <v>27.96152809396142</v>
       </c>
       <c r="G12">
-        <v>24.91998535670103</v>
+        <v>22.98296978727453</v>
       </c>
       <c r="H12">
-        <v>13.10345448531418</v>
+        <v>7.87096301072104</v>
       </c>
       <c r="I12">
-        <v>20.52542813703625</v>
+        <v>11.78018951014446</v>
       </c>
       <c r="J12">
-        <v>7.082524904699997</v>
+        <v>5.011870083719281</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.32562631971414</v>
+        <v>10.71701749946665</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.87879308653035</v>
+        <v>11.82066583854276</v>
       </c>
       <c r="O12">
-        <v>19.46703402023193</v>
+        <v>13.40441187622186</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.2168080235244</v>
+        <v>25.85399953504795</v>
       </c>
       <c r="C13">
-        <v>12.12134556664179</v>
+        <v>12.10586515253943</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.7900652837503</v>
+        <v>10.75422044760211</v>
       </c>
       <c r="F13">
-        <v>34.37923031672505</v>
+        <v>27.9148104683485</v>
       </c>
       <c r="G13">
-        <v>24.91627490084341</v>
+        <v>22.93665146262395</v>
       </c>
       <c r="H13">
-        <v>13.10523090169459</v>
+        <v>7.869436373189764</v>
       </c>
       <c r="I13">
-        <v>20.53008592884207</v>
+        <v>11.78428241118913</v>
       </c>
       <c r="J13">
-        <v>7.081855893897811</v>
+        <v>5.009032909426008</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.32270024383878</v>
+        <v>10.69808640968656</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.88010043358613</v>
+        <v>11.8226935412703</v>
       </c>
       <c r="O13">
-        <v>19.46880046433687</v>
+        <v>13.39178611154065</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.12026557327811</v>
+        <v>25.62933782469601</v>
       </c>
       <c r="C14">
-        <v>12.10392889536424</v>
+        <v>12.05159468632684</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.79277381672167</v>
+        <v>10.72964077707329</v>
       </c>
       <c r="F14">
-        <v>34.36875793683145</v>
+        <v>27.76258639713618</v>
       </c>
       <c r="G14">
-        <v>24.90440102688053</v>
+        <v>22.78581650652378</v>
       </c>
       <c r="H14">
-        <v>13.11108083564687</v>
+        <v>7.864647453458861</v>
       </c>
       <c r="I14">
-        <v>20.5453830367236</v>
+        <v>11.79805232099774</v>
       </c>
       <c r="J14">
-        <v>7.079672868149302</v>
+        <v>4.999771292040407</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.31319645303008</v>
+        <v>10.63621822492249</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.88440615181232</v>
+        <v>11.82941997903765</v>
       </c>
       <c r="O14">
-        <v>19.47467959201469</v>
+        <v>13.35095947891262</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.06086829128389</v>
+        <v>25.49078993987925</v>
       </c>
       <c r="C15">
-        <v>12.09324555119307</v>
+        <v>12.01823818352491</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.7944804153712</v>
+        <v>10.71468417138778</v>
       </c>
       <c r="F15">
-        <v>34.3625045629529</v>
+        <v>27.66944897080539</v>
       </c>
       <c r="G15">
-        <v>24.89730232548283</v>
+        <v>22.69359667779601</v>
       </c>
       <c r="H15">
-        <v>13.11470761747671</v>
+        <v>7.861859004116324</v>
       </c>
       <c r="I15">
-        <v>20.55483518356859</v>
+        <v>11.80680793272718</v>
       </c>
       <c r="J15">
-        <v>7.078334759534859</v>
+        <v>4.994091455367872</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.30740503815789</v>
+        <v>10.59822349194076</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.88707594769339</v>
+        <v>11.83362695124929</v>
       </c>
       <c r="O15">
-        <v>19.47837165370209</v>
+        <v>13.32621940421492</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.71654284072833</v>
+        <v>24.68243300904074</v>
       </c>
       <c r="C16">
-        <v>12.03180004129929</v>
+        <v>11.82536661557898</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.80498945045962</v>
+        <v>10.63049542490203</v>
       </c>
       <c r="F16">
-        <v>34.32914697014788</v>
+        <v>27.13742319173266</v>
       </c>
       <c r="G16">
-        <v>24.8593018979018</v>
+        <v>22.16785031882683</v>
       </c>
       <c r="H16">
-        <v>13.13615817332106</v>
+        <v>7.848062183017691</v>
       </c>
       <c r="I16">
-        <v>20.61026101651017</v>
+        <v>11.86177503558198</v>
       </c>
       <c r="J16">
-        <v>7.070652467279798</v>
+        <v>4.961440785935292</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>13.27468099593243</v>
+        <v>10.37902347086371</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.90287281330654</v>
+        <v>11.85904590491194</v>
       </c>
       <c r="O16">
-        <v>19.50092168747782</v>
+        <v>13.18851873103247</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.50187759990274</v>
+        <v>24.17363647100819</v>
       </c>
       <c r="C17">
-        <v>11.99391478794676</v>
+        <v>11.70554928505151</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.81208759419215</v>
+        <v>10.58020764175159</v>
       </c>
       <c r="F17">
-        <v>34.31090073401174</v>
+        <v>26.81269005939016</v>
       </c>
       <c r="G17">
-        <v>24.83838708410535</v>
+        <v>21.8478796500633</v>
       </c>
       <c r="H17">
-        <v>13.14991225124001</v>
+        <v>7.841504156386815</v>
       </c>
       <c r="I17">
-        <v>20.64538577905035</v>
+        <v>11.899632405314</v>
       </c>
       <c r="J17">
-        <v>7.06592735442437</v>
+        <v>4.941322925607823</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>13.2550259280856</v>
+        <v>10.24329337652949</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.91300795505777</v>
+        <v>11.8757871930137</v>
       </c>
       <c r="O17">
-        <v>19.51599627925019</v>
+        <v>13.10765170365994</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.37718213886475</v>
+        <v>23.87623105454235</v>
       </c>
       <c r="C18">
-        <v>11.97205782864069</v>
+        <v>11.63609873015785</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.81640975911917</v>
+        <v>10.55178346081426</v>
       </c>
       <c r="F18">
-        <v>34.30122331979911</v>
+        <v>26.62656863948596</v>
       </c>
       <c r="G18">
-        <v>24.82724066732085</v>
+        <v>21.66483201318298</v>
       </c>
       <c r="H18">
-        <v>13.15804173487325</v>
+        <v>7.838415968665258</v>
       </c>
       <c r="I18">
-        <v>20.66600085941816</v>
+        <v>11.92287285339941</v>
       </c>
       <c r="J18">
-        <v>7.063205215561648</v>
+        <v>4.929720675781855</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>13.24387751133865</v>
+        <v>10.16478427001496</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.91900088348367</v>
+        <v>11.88582960703355</v>
       </c>
       <c r="O18">
-        <v>19.52512217341728</v>
+        <v>13.06245307005662</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.33475543898701</v>
+        <v>23.7747154334547</v>
       </c>
       <c r="C19">
-        <v>11.96464638401679</v>
+        <v>11.612493625762</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.81791432135184</v>
+        <v>10.54224543182354</v>
       </c>
       <c r="F19">
-        <v>34.29808730387565</v>
+        <v>26.56366888303838</v>
       </c>
       <c r="G19">
-        <v>24.82361856740466</v>
+        <v>21.60303047784119</v>
       </c>
       <c r="H19">
-        <v>13.16083175600218</v>
+        <v>7.837486231249237</v>
       </c>
       <c r="I19">
-        <v>20.67305153922712</v>
+        <v>11.93098836351391</v>
       </c>
       <c r="J19">
-        <v>7.062282806500657</v>
+        <v>4.925787151010231</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>13.24012996854074</v>
+        <v>10.13812888739804</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.9210580793028</v>
+        <v>11.8892999883256</v>
       </c>
       <c r="O19">
-        <v>19.52829019524343</v>
+        <v>13.04737404744468</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.52485677062522</v>
+        <v>24.22829083306899</v>
       </c>
       <c r="C20">
-        <v>11.9979546879903</v>
+        <v>11.71835974925785</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.81130720139736</v>
+        <v>10.58550912016432</v>
       </c>
       <c r="F20">
-        <v>34.31275853681814</v>
+        <v>26.84719169172031</v>
       </c>
       <c r="G20">
-        <v>24.84052213727744</v>
+        <v>21.88183969258144</v>
       </c>
       <c r="H20">
-        <v>13.1484254896195</v>
+        <v>7.842131122665517</v>
       </c>
       <c r="I20">
-        <v>20.64160401364686</v>
+        <v>11.89544949795195</v>
       </c>
       <c r="J20">
-        <v>7.0664308069246</v>
+        <v>4.943467741846542</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>13.25710208097624</v>
+        <v>10.25778819682448</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.91191213846146</v>
+        <v>11.87396209463807</v>
       </c>
       <c r="O20">
-        <v>19.51434441762294</v>
+        <v>13.11612386574214</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.1486772591326</v>
+        <v>25.69552138385414</v>
       </c>
       <c r="C21">
-        <v>12.10904776687224</v>
+        <v>12.06755912864954</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.79196834800742</v>
+        <v>10.73683976354439</v>
       </c>
       <c r="F21">
-        <v>34.37180033748269</v>
+        <v>27.80727683559345</v>
       </c>
       <c r="G21">
-        <v>24.90785234519025</v>
+        <v>22.83008501754304</v>
       </c>
       <c r="H21">
-        <v>13.10935349640768</v>
+        <v>7.866023786232784</v>
       </c>
       <c r="I21">
-        <v>20.54087276719443</v>
+        <v>11.79394052463</v>
       </c>
       <c r="J21">
-        <v>7.080314272850882</v>
+        <v>5.002493083400386</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.31598172222917</v>
+        <v>10.65441108024511</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.88313470294758</v>
+        <v>11.82742611539306</v>
       </c>
       <c r="O21">
-        <v>19.47293379766402</v>
+        <v>13.36289546592494</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.54473611206609</v>
+        <v>26.61248976438769</v>
       </c>
       <c r="C22">
-        <v>12.18098603769272</v>
+        <v>12.29070649949434</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.7814577736709</v>
+        <v>10.84018252872009</v>
       </c>
       <c r="F22">
-        <v>34.41761193435774</v>
+        <v>28.43954697579149</v>
       </c>
       <c r="G22">
-        <v>24.95966830894307</v>
+        <v>23.45760318047036</v>
       </c>
       <c r="H22">
-        <v>13.08576563490836</v>
+        <v>7.888079912311934</v>
       </c>
       <c r="I22">
-        <v>20.47871830363671</v>
+        <v>11.74182432249769</v>
       </c>
       <c r="J22">
-        <v>7.089346101984835</v>
+        <v>5.040767275785417</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.35580883338824</v>
+        <v>10.90926632100941</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.86577850802484</v>
+        <v>11.8008756307192</v>
       </c>
       <c r="O22">
-        <v>19.44993755649949</v>
+        <v>13.53611330651031</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.33445020648726</v>
+        <v>26.12690405415559</v>
       </c>
       <c r="C23">
-        <v>12.14265598029994</v>
+        <v>12.17208695617864</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.78687293065187</v>
+        <v>10.78462119361472</v>
       </c>
       <c r="F23">
-        <v>34.39250326213829</v>
+        <v>28.10170087164991</v>
       </c>
       <c r="G23">
-        <v>24.93130138339523</v>
+        <v>23.12201907570745</v>
       </c>
       <c r="H23">
-        <v>13.09817657978115</v>
+        <v>7.875701854034622</v>
       </c>
       <c r="I23">
-        <v>20.51155425462737</v>
+        <v>11.7682799667468</v>
       </c>
       <c r="J23">
-        <v>7.08452960915401</v>
+        <v>5.020368528063285</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.33443164066229</v>
+        <v>10.773663600638</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.87490921958342</v>
+        <v>11.81468344694757</v>
       </c>
       <c r="O23">
-        <v>19.46183828828052</v>
+        <v>13.44256106659429</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.51447187084181</v>
+        <v>24.2035968366449</v>
       </c>
       <c r="C24">
-        <v>11.99612848575285</v>
+        <v>11.71256989767127</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.8116592651686</v>
+        <v>10.5831108049607</v>
       </c>
       <c r="F24">
-        <v>34.31191609246273</v>
+        <v>26.83159171009249</v>
       </c>
       <c r="G24">
-        <v>24.83955414496342</v>
+        <v>21.86648351781909</v>
       </c>
       <c r="H24">
-        <v>13.14909696280016</v>
+        <v>7.841845550503885</v>
       </c>
       <c r="I24">
-        <v>20.64331243727932</v>
+        <v>11.89733600658805</v>
       </c>
       <c r="J24">
-        <v>7.066203213487185</v>
+        <v>4.942498182958842</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>13.25616297967623</v>
+        <v>10.25123656633225</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.91240703970587</v>
+        <v>11.87478592280225</v>
       </c>
       <c r="O24">
-        <v>19.51508979368768</v>
+        <v>13.11228957698498</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.5836983085088</v>
+        <v>21.94680435877674</v>
       </c>
       <c r="C25">
-        <v>11.83558357157838</v>
+        <v>11.1966961947286</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.84755353376477</v>
+        <v>10.38485917511751</v>
       </c>
       <c r="F25">
-        <v>34.25625643092198</v>
+        <v>25.48742398524845</v>
       </c>
       <c r="G25">
-        <v>24.77436674883826</v>
+        <v>20.55084617081334</v>
       </c>
       <c r="H25">
-        <v>13.21237517643256</v>
+        <v>7.831258111010866</v>
       </c>
       <c r="I25">
-        <v>20.80119169987469</v>
+        <v>12.09196349414685</v>
       </c>
       <c r="J25">
-        <v>7.046269356000654</v>
+        <v>4.857333976337403</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.17775287118515</v>
+        <v>9.671211947120634</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.95910650002345</v>
+        <v>11.95532111249232</v>
       </c>
       <c r="O25">
-        <v>19.58993056838318</v>
+        <v>12.80605983412995</v>
       </c>
     </row>
   </sheetData>
